--- a/Projects/MARSRU_PROD/Data/MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/MARS KPIs.xlsx
@@ -23,6 +23,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="249">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -236,6 +237,9 @@
   </si>
   <si>
     <t xml:space="preserve">Availability of private brand in Dogs category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBCat, Dingo, Katty, Kotoffskiy, Pay less live better, TomCat, 365 days, ARO, CTM, Every Day, Lenta, Nasha Marka, Spar, To Chto Nado</t>
   </si>
   <si>
     <t xml:space="preserve">Whiskas - Рагу говядина/ягненок 85г [Кол-во горизонтальных фэйсов на основной полке]</t>
@@ -1202,40 +1206,40 @@
   </sheetPr>
   <dimension ref="A1:AA65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F72" activeCellId="0" sqref="F72"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="5.67611336032389"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="73.6963562753036"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="76.1619433198381"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="2" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="2" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.82995951417"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="5.75708502024292"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="75.5344129554656"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="29.748987854251"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.2388663967611"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="77.9838056680162"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4696356275304"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="13.834008097166"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="28.8947368421053"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="12.9757085020243"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="2" width="12.9757085020243"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="2" width="16.4048582995951"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="12.9757085020243"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="17.753036437247"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="44.0769230769231"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="108.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1716,7 +1720,7 @@
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="P8" s="14" t="n">
         <v>0</v>
@@ -1751,26 +1755,26 @@
         <v>27</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I9" s="11" t="n">
         <v>10</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="12" t="n">
@@ -1791,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA9" s="12" t="s">
         <v>38</v>
@@ -1811,26 +1815,26 @@
         <v>27</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I10" s="11" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12" t="n">
@@ -1851,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="Z10" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA10" s="12" t="s">
         <v>38</v>
@@ -1871,26 +1875,26 @@
         <v>27</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I11" s="11" t="n">
         <v>10</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="12" t="n">
@@ -1911,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="Z11" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA11" s="12" t="s">
         <v>38</v>
@@ -1931,26 +1935,26 @@
         <v>27</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I12" s="11" t="n">
         <v>10</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="12" t="n">
@@ -1971,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="Z12" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA12" s="12" t="s">
         <v>38</v>
@@ -1991,22 +1995,22 @@
         <v>27</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I13" s="11" t="n">
         <v>10</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="11" t="s">
@@ -2014,7 +2018,7 @@
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P13" s="14" t="n">
         <v>1</v>
@@ -2028,10 +2032,10 @@
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z13" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA13" s="12"/>
     </row>
@@ -2049,22 +2053,22 @@
         <v>27</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I14" s="11" t="n">
         <v>10</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11" t="s">
@@ -2072,7 +2076,7 @@
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P14" s="14" t="n">
         <v>1</v>
@@ -2086,10 +2090,10 @@
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z14" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA14" s="12"/>
     </row>
@@ -2107,22 +2111,22 @@
         <v>27</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I15" s="11" t="n">
         <v>10</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="11" t="s">
@@ -2130,7 +2134,7 @@
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P15" s="14" t="n">
         <v>1</v>
@@ -2144,10 +2148,10 @@
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z15" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA15" s="12"/>
     </row>
@@ -2165,22 +2169,22 @@
         <v>27</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I16" s="11" t="n">
         <v>10</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="11" t="s">
@@ -2188,7 +2192,7 @@
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P16" s="14" t="n">
         <v>1</v>
@@ -2202,10 +2206,10 @@
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z16" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA16" s="12"/>
     </row>
@@ -2223,26 +2227,26 @@
         <v>27</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I17" s="11" t="n">
         <v>10</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="15" t="n">
@@ -2263,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="Z17" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA17" s="12" t="s">
         <v>38</v>
@@ -2283,26 +2287,26 @@
         <v>27</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I18" s="11" t="n">
         <v>10</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="12" t="n">
@@ -2323,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="Z18" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA18" s="12" t="s">
         <v>38</v>
@@ -2343,26 +2347,26 @@
         <v>27</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I19" s="11" t="n">
         <v>10</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="12" t="n">
@@ -2383,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="Z19" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA19" s="12" t="s">
         <v>38</v>
@@ -2403,22 +2407,22 @@
         <v>27</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I20" s="11" t="n">
         <v>10</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="11" t="s">
@@ -2426,7 +2430,7 @@
       </c>
       <c r="N20" s="12"/>
       <c r="O20" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P20" s="14" t="n">
         <v>1</v>
@@ -2435,17 +2439,17 @@
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
       <c r="T20" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z20" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA20" s="12"/>
     </row>
@@ -2463,22 +2467,22 @@
         <v>27</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I21" s="11" t="n">
         <v>10</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="11" t="s">
@@ -2486,7 +2490,7 @@
       </c>
       <c r="N21" s="12"/>
       <c r="O21" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P21" s="14" t="n">
         <v>1</v>
@@ -2494,7 +2498,7 @@
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
@@ -2502,10 +2506,10 @@
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z21" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA21" s="12"/>
     </row>
@@ -2523,22 +2527,22 @@
         <v>27</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I22" s="11" t="n">
         <v>10</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="11" t="s">
@@ -2546,7 +2550,7 @@
       </c>
       <c r="N22" s="12"/>
       <c r="O22" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P22" s="14" t="n">
         <v>1</v>
@@ -2560,10 +2564,10 @@
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z22" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA22" s="12"/>
     </row>
@@ -2581,10 +2585,10 @@
         <v>27</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>44</v>
@@ -2593,18 +2597,18 @@
         <v>45</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L23" s="11"/>
       <c r="M23" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N23" s="12"/>
       <c r="O23" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P23" s="14" t="n">
         <v>0</v>
@@ -2614,10 +2618,10 @@
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
       <c r="U23" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
@@ -2643,10 +2647,10 @@
         <v>27</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>44</v>
@@ -2655,16 +2659,16 @@
         <v>1</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L24" s="11" t="n">
         <v>2306</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N24" s="12"/>
       <c r="O24" s="0"/>
@@ -2679,7 +2683,7 @@
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA24" s="12"/>
     </row>
@@ -2697,10 +2701,10 @@
         <v>27</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>44</v>
@@ -2709,18 +2713,18 @@
         <v>45</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N25" s="12"/>
       <c r="O25" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P25" s="14" t="n">
         <v>0</v>
@@ -2728,7 +2732,7 @@
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
       <c r="S25" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
@@ -2737,7 +2741,7 @@
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA25" s="12" t="s">
         <v>38</v>
@@ -2757,7 +2761,7 @@
         <v>27</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>29</v>
@@ -2772,7 +2776,7 @@
         <v>53</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L26" s="11"/>
       <c r="M26" s="11" t="s">
@@ -2817,26 +2821,26 @@
         <v>27</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I27" s="14" t="n">
         <v>10</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L27" s="14"/>
       <c r="M27" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N27" s="13"/>
       <c r="O27" s="17" t="n">
@@ -2857,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="Z27" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA27" s="13" t="s">
         <v>38</v>
@@ -2877,26 +2881,26 @@
         <v>27</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I28" s="14" t="n">
         <v>10</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L28" s="14"/>
       <c r="M28" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N28" s="13"/>
       <c r="O28" s="17" t="n">
@@ -2917,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="Z28" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA28" s="13" t="s">
         <v>38</v>
@@ -2937,26 +2941,26 @@
         <v>27</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I29" s="14" t="n">
         <v>10</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N29" s="13"/>
       <c r="O29" s="17" t="n">
@@ -2977,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="Z29" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA29" s="13" t="s">
         <v>38</v>
@@ -2997,22 +3001,22 @@
         <v>27</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I30" s="14" t="n">
         <v>10</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L30" s="14"/>
       <c r="M30" s="14" t="s">
@@ -3020,7 +3024,7 @@
       </c>
       <c r="N30" s="13"/>
       <c r="O30" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P30" s="14" t="n">
         <v>1</v>
@@ -3036,7 +3040,7 @@
       <c r="W30" s="13"/>
       <c r="X30" s="13"/>
       <c r="Y30" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z30" s="13" t="s">
         <v>50</v>
@@ -3057,22 +3061,22 @@
         <v>27</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I31" s="14" t="n">
         <v>10</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L31" s="14"/>
       <c r="M31" s="14" t="s">
@@ -3080,7 +3084,7 @@
       </c>
       <c r="N31" s="13"/>
       <c r="O31" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P31" s="14" t="n">
         <v>1</v>
@@ -3089,19 +3093,19 @@
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
       <c r="T31" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U31" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="V31" s="13"/>
       <c r="W31" s="13"/>
       <c r="X31" s="13"/>
       <c r="Y31" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z31" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA31" s="13"/>
     </row>
@@ -3119,22 +3123,22 @@
         <v>27</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I32" s="14" t="n">
         <v>10</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14" t="s">
@@ -3142,7 +3146,7 @@
       </c>
       <c r="N32" s="13"/>
       <c r="O32" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P32" s="14" t="n">
         <v>1</v>
@@ -3158,7 +3162,7 @@
       <c r="W32" s="13"/>
       <c r="X32" s="13"/>
       <c r="Y32" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z32" s="13" t="s">
         <v>50</v>
@@ -3177,20 +3181,20 @@
         <v>27</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I33" s="14" t="n">
         <v>10</v>
       </c>
       <c r="J33" s="0"/>
       <c r="K33" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L33" s="0"/>
       <c r="M33" s="14" t="s">
@@ -3198,7 +3202,7 @@
       </c>
       <c r="N33" s="13"/>
       <c r="O33" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P33" s="14" t="n">
         <v>0</v>
@@ -3206,18 +3210,18 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA33" s="13"/>
     </row>
@@ -3233,20 +3237,20 @@
         <v>27</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I34" s="14" t="n">
         <v>10</v>
       </c>
       <c r="J34" s="0"/>
       <c r="K34" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L34" s="0"/>
       <c r="M34" s="14" t="s">
@@ -3254,7 +3258,7 @@
       </c>
       <c r="N34" s="13"/>
       <c r="O34" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P34" s="14" t="n">
         <v>1</v>
@@ -3287,20 +3291,20 @@
         <v>27</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I35" s="14" t="n">
         <v>10</v>
       </c>
       <c r="J35" s="0"/>
       <c r="K35" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L35" s="0"/>
       <c r="M35" s="14" t="s">
@@ -3308,7 +3312,7 @@
       </c>
       <c r="N35" s="13"/>
       <c r="O35" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P35" s="14" t="n">
         <v>1</v>
@@ -3341,24 +3345,24 @@
         <v>27</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I36" s="14" t="n">
         <v>10</v>
       </c>
       <c r="J36" s="0"/>
       <c r="K36" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L36" s="0"/>
       <c r="M36" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N36" s="13"/>
       <c r="O36" s="17" t="n">
@@ -3379,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA36" s="13" t="s">
         <v>38</v>
@@ -3397,24 +3401,24 @@
         <v>27</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I37" s="14" t="n">
         <v>10</v>
       </c>
       <c r="J37" s="0"/>
       <c r="K37" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L37" s="0"/>
       <c r="M37" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N37" s="13"/>
       <c r="O37" s="17" t="n">
@@ -3435,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="Z37" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA37" s="13" t="s">
         <v>38</v>
@@ -3455,10 +3459,10 @@
         <v>27</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H38" s="14" t="s">
         <v>44</v>
@@ -3468,16 +3472,16 @@
         <v>1</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L38" s="14" t="n">
         <v>2218</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
@@ -3492,7 +3496,7 @@
       <c r="X38" s="13"/>
       <c r="Y38" s="13"/>
       <c r="Z38" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA38" s="13"/>
     </row>
@@ -3510,10 +3514,10 @@
         <v>27</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H39" s="14" t="s">
         <v>44</v>
@@ -3523,16 +3527,16 @@
         <v>1</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L39" s="14" t="n">
         <v>2221</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
@@ -3547,7 +3551,7 @@
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
       <c r="Z39" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA39" s="13"/>
     </row>
@@ -3565,10 +3569,10 @@
         <v>27</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H40" s="14" t="s">
         <v>44</v>
@@ -3578,16 +3582,16 @@
         <v>1</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L40" s="14" t="n">
         <v>2255</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
@@ -3602,7 +3606,7 @@
       <c r="X40" s="13"/>
       <c r="Y40" s="13"/>
       <c r="Z40" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA40" s="13"/>
     </row>
@@ -3620,10 +3624,10 @@
         <v>27</v>
       </c>
       <c r="F41" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" s="13" t="s">
         <v>149</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>44</v>
@@ -3633,16 +3637,16 @@
         <v>1</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L41" s="14" t="n">
         <v>2256</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
@@ -3657,7 +3661,7 @@
       <c r="X41" s="13"/>
       <c r="Y41" s="13"/>
       <c r="Z41" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA41" s="13"/>
     </row>
@@ -3675,10 +3679,10 @@
         <v>27</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>44</v>
@@ -3688,16 +3692,16 @@
         <v>1</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L42" s="14" t="n">
         <v>2257</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
@@ -3712,7 +3716,7 @@
       <c r="X42" s="13"/>
       <c r="Y42" s="13"/>
       <c r="Z42" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA42" s="13"/>
     </row>
@@ -3730,10 +3734,10 @@
         <v>27</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>44</v>
@@ -3743,16 +3747,16 @@
         <v>1</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L43" s="14" t="n">
         <v>2258</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
@@ -3767,7 +3771,7 @@
       <c r="X43" s="13"/>
       <c r="Y43" s="13"/>
       <c r="Z43" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA43" s="13"/>
     </row>
@@ -3785,10 +3789,10 @@
         <v>27</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>44</v>
@@ -3798,16 +3802,16 @@
         <v>1</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L44" s="14" t="n">
         <v>2307</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
@@ -3822,7 +3826,7 @@
       <c r="X44" s="13"/>
       <c r="Y44" s="13"/>
       <c r="Z44" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA44" s="13"/>
     </row>
@@ -3840,10 +3844,10 @@
         <v>27</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>44</v>
@@ -3852,16 +3856,16 @@
         <v>45</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L45" s="14" t="n">
         <v>2309</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
@@ -3876,7 +3880,7 @@
       <c r="X45" s="13"/>
       <c r="Y45" s="13"/>
       <c r="Z45" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA45" s="13"/>
     </row>
@@ -3894,28 +3898,28 @@
         <v>27</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L46" s="14" t="n">
         <v>2310</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
@@ -3930,13 +3934,13 @@
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
       <c r="Z46" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>2018</v>
@@ -3951,10 +3955,10 @@
         <v>27</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>44</v>
@@ -3964,18 +3968,18 @@
         <v>1</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L47" s="11"/>
       <c r="M47" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N47" s="13"/>
       <c r="O47" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P47" s="14" t="n">
         <v>1</v>
@@ -3990,10 +3994,10 @@
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
       <c r="Z47" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA47" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4008,10 +4012,10 @@
         <v>27</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>44</v>
@@ -4020,16 +4024,16 @@
         <v>45</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L48" s="1" t="n">
         <v>2315</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
@@ -4044,7 +4048,7 @@
       <c r="X48" s="13"/>
       <c r="Y48" s="13"/>
       <c r="Z48" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA48" s="13"/>
     </row>
@@ -4062,10 +4066,10 @@
         <v>27</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>44</v>
@@ -4075,16 +4079,16 @@
         <v>1</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L49" s="14" t="n">
         <v>2318</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
@@ -4099,7 +4103,7 @@
       <c r="X49" s="13"/>
       <c r="Y49" s="13"/>
       <c r="Z49" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA49" s="13"/>
     </row>
@@ -4117,28 +4121,28 @@
         <v>27</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L50" s="14" t="n">
         <v>2330</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
@@ -4153,13 +4157,13 @@
       <c r="X50" s="13"/>
       <c r="Y50" s="13"/>
       <c r="Z50" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>2018</v>
@@ -4174,10 +4178,10 @@
         <v>27</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H51" s="11" t="s">
         <v>44</v>
@@ -4187,18 +4191,18 @@
         <v>1</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L51" s="11"/>
       <c r="M51" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N51" s="13"/>
       <c r="O51" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P51" s="14" t="n">
         <v>1</v>
@@ -4213,10 +4217,10 @@
       <c r="X51" s="12"/>
       <c r="Y51" s="12"/>
       <c r="Z51" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA51" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4233,10 +4237,10 @@
         <v>27</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>44</v>
@@ -4246,16 +4250,16 @@
         <v>1</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L52" s="14" t="n">
         <v>2191</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
@@ -4270,7 +4274,7 @@
       <c r="X52" s="13"/>
       <c r="Y52" s="13"/>
       <c r="Z52" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA52" s="13"/>
     </row>
@@ -4288,10 +4292,10 @@
         <v>27</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>44</v>
@@ -4301,16 +4305,16 @@
         <v>1</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L53" s="14" t="n">
         <v>2192</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N53" s="13"/>
       <c r="O53" s="13"/>
@@ -4325,7 +4329,7 @@
       <c r="X53" s="13"/>
       <c r="Y53" s="13"/>
       <c r="Z53" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA53" s="13"/>
     </row>
@@ -4343,10 +4347,10 @@
         <v>27</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>44</v>
@@ -4356,16 +4360,16 @@
         <v>1</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L54" s="14" t="n">
         <v>2193</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="13"/>
@@ -4380,7 +4384,7 @@
       <c r="X54" s="13"/>
       <c r="Y54" s="13"/>
       <c r="Z54" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA54" s="13"/>
     </row>
@@ -4398,10 +4402,10 @@
         <v>27</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>44</v>
@@ -4411,16 +4415,16 @@
         <v>1</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L55" s="14" t="n">
         <v>2219</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N55" s="13"/>
       <c r="O55" s="13"/>
@@ -4435,7 +4439,7 @@
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
       <c r="Z55" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA55" s="13"/>
     </row>
@@ -4453,10 +4457,10 @@
         <v>27</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>44</v>
@@ -4466,16 +4470,16 @@
         <v>1</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L56" s="14" t="n">
         <v>2194</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N56" s="13"/>
       <c r="O56" s="13"/>
@@ -4490,7 +4494,7 @@
       <c r="X56" s="13"/>
       <c r="Y56" s="13"/>
       <c r="Z56" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA56" s="13"/>
     </row>
@@ -4508,10 +4512,10 @@
         <v>27</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>44</v>
@@ -4521,16 +4525,16 @@
         <v>1</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L57" s="14" t="n">
         <v>2195</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N57" s="13"/>
       <c r="O57" s="13"/>
@@ -4545,7 +4549,7 @@
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
       <c r="Z57" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA57" s="13"/>
     </row>
@@ -4561,10 +4565,10 @@
         <v>27</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>44</v>
@@ -4574,16 +4578,16 @@
         <v>1</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L58" s="1" t="n">
         <v>2382</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N58" s="13"/>
       <c r="O58" s="13"/>
@@ -4598,7 +4602,7 @@
       <c r="X58" s="13"/>
       <c r="Y58" s="13"/>
       <c r="Z58" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA58" s="13"/>
     </row>
@@ -4616,28 +4620,28 @@
         <v>27</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>29</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J59" s="14"/>
       <c r="K59" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L59" s="14"/>
       <c r="M59" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N59" s="13"/>
       <c r="O59" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P59" s="14"/>
       <c r="Q59" s="13"/>
@@ -4656,7 +4660,7 @@
     </row>
     <row r="60" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>2018</v>
@@ -4669,10 +4673,10 @@
         <v>27</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H60" s="14" t="s">
         <v>44</v>
@@ -4682,11 +4686,11 @@
       </c>
       <c r="J60" s="14"/>
       <c r="K60" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L60" s="23"/>
       <c r="M60" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N60" s="0"/>
       <c r="O60" s="12"/>
@@ -4703,13 +4707,13 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>2018</v>
@@ -4722,10 +4726,10 @@
         <v>27</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H61" s="14" t="s">
         <v>44</v>
@@ -4735,11 +4739,11 @@
       </c>
       <c r="J61" s="14"/>
       <c r="K61" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L61" s="23"/>
       <c r="M61" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N61" s="0"/>
       <c r="O61" s="12"/>
@@ -4756,7 +4760,7 @@
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
       <c r="Z61" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA61" s="3"/>
     </row>
@@ -4772,10 +4776,10 @@
         <v>27</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G62" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H62" s="14" t="s">
         <v>44</v>
@@ -4786,15 +4790,15 @@
       </c>
       <c r="J62" s="0"/>
       <c r="K62" s="28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L62" s="0"/>
       <c r="M62" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N62" s="12"/>
       <c r="O62" s="29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P62" s="14" t="n">
         <v>0</v>
@@ -4825,10 +4829,10 @@
         <v>27</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H63" s="14" t="s">
         <v>44</v>
@@ -4839,15 +4843,15 @@
       </c>
       <c r="J63" s="0"/>
       <c r="K63" s="30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L63" s="0"/>
       <c r="M63" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N63" s="12"/>
       <c r="O63" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P63" s="14" t="n">
         <v>0</v>
@@ -4878,10 +4882,10 @@
         <v>27</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H64" s="14" t="s">
         <v>44</v>
@@ -4892,15 +4896,15 @@
       </c>
       <c r="J64" s="0"/>
       <c r="K64" s="30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L64" s="0"/>
       <c r="M64" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N64" s="12"/>
       <c r="O64" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P64" s="14" t="n">
         <v>0</v>
@@ -4931,10 +4935,10 @@
         <v>27</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H65" s="14" t="s">
         <v>44</v>
@@ -4945,15 +4949,15 @@
       </c>
       <c r="J65" s="0"/>
       <c r="K65" s="30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L65" s="0"/>
       <c r="M65" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N65" s="12"/>
       <c r="O65" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P65" s="14" t="n">
         <v>0</v>
@@ -4986,10 +4990,10 @@
         <v>27</v>
       </c>
       <c r="F66" s="26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H66" s="14" t="s">
         <v>44</v>
@@ -5000,15 +5004,15 @@
       </c>
       <c r="J66" s="14"/>
       <c r="K66" s="30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L66" s="11"/>
       <c r="M66" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N66" s="13"/>
       <c r="O66" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P66" s="14" t="n">
         <v>0</v>
@@ -5041,10 +5045,10 @@
         <v>27</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H67" s="14" t="s">
         <v>44</v>
@@ -5054,15 +5058,15 @@
         <v>1</v>
       </c>
       <c r="K67" s="30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L67" s="0"/>
       <c r="M67" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N67" s="12"/>
       <c r="O67" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P67" s="14" t="n">
         <v>0</v>
@@ -5075,7 +5079,7 @@
         <v>36</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
@@ -5096,10 +5100,10 @@
         <v>27</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H68" s="14" t="s">
         <v>44</v>
@@ -5109,15 +5113,15 @@
         <v>1</v>
       </c>
       <c r="K68" s="30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L68" s="0"/>
       <c r="M68" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N68" s="12"/>
       <c r="O68" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P68" s="14" t="n">
         <v>0</v>
@@ -5147,10 +5151,10 @@
         <v>27</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H69" s="14" t="s">
         <v>44</v>
@@ -5160,15 +5164,15 @@
         <v>1</v>
       </c>
       <c r="K69" s="30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L69" s="0"/>
       <c r="M69" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N69" s="12"/>
       <c r="O69" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P69" s="14" t="n">
         <v>0</v>
@@ -5198,10 +5202,10 @@
         <v>27</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H70" s="14" t="s">
         <v>44</v>
@@ -5211,15 +5215,15 @@
         <v>1</v>
       </c>
       <c r="K70" s="30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L70" s="0"/>
       <c r="M70" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N70" s="12"/>
       <c r="O70" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P70" s="14" t="n">
         <v>0</v>
@@ -5235,7 +5239,7 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
       <c r="AA70" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5249,10 +5253,10 @@
         <v>27</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H71" s="11" t="s">
         <v>44</v>
@@ -5265,7 +5269,7 @@
         <v>2537</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N71" s="12"/>
       <c r="O71" s="12"/>
@@ -5280,7 +5284,7 @@
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
       <c r="Z71" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA71" s="3"/>
     </row>
@@ -5295,28 +5299,28 @@
         <v>27</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I72" s="1" t="n">
         <v>3</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M72" s="31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z72" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5347,95 +5351,95 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -5462,9 +5466,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.8178137651822"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.2591093117409"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="89.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5481,10 +5485,10 @@
         <v>27</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>44</v>
@@ -5493,36 +5497,36 @@
         <v>45</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L1" s="35"/>
       <c r="M1" s="35" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N1" s="35"/>
       <c r="O1" s="35" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P1" s="35"/>
       <c r="Q1" s="33" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R1" s="37" t="n">
         <v>1</v>
       </c>
       <c r="S1" s="35"/>
       <c r="T1" s="35" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="U1" s="35"/>
       <c r="V1" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="W1" s="35"/>
       <c r="X1" s="35"/>
       <c r="Y1" s="35"/>
       <c r="Z1" s="35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="35" t="s">
         <v>38</v>

--- a/Projects/MARSRU_PROD/Data/MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/MARS KPIs.xlsx
@@ -24,6 +24,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -632,7 +634,23 @@
   </si>
   <si>
     <t xml:space="preserve">form_factor: POUCH, pouch, Pouch. brand_name: Kitekat
-Brand_name: Friskies, TomCat, Lenta, Catty, Darsi
+brand_name: Friskies
+1.5
+OR
+form_factor: POUCH, pouch, Pouch. brand_name: Kitekat
+brand_name: TomCat
+1.5
+OR
+form_factor: POUCH, pouch, Pouch. brand_name: Kitekat
+brand_name: Lenta
+1.5
+OR
+form_factor: POUCH, pouch, Pouch. brand_name: Kitekat
+brand_name: Catty
+1.5
+OR
+form_factor: POUCH, pouch, Pouch. brand_name: Kitekat
+brand_name: Dars
 1.5</t>
   </si>
   <si>
@@ -642,8 +660,8 @@
     <t xml:space="preserve">To return true if total linear length of WET POUCHES wiskas (excluding wiskas DUO) &gt;= 130%*any other  brands from the list {Felix}</t>
   </si>
   <si>
-    <t xml:space="preserve">form_factor: POUCH, pouch, Pouch. Brand_name: Whiskas. exclude sub_category: C&amp;T. exclude product_fk: 673,674,675,676
-Brand_name: Felix
+    <t xml:space="preserve">form_factor: POUCH, pouch, Pouch. brand_name: Whiskas. exclude sub_category: C&amp;T. exclude product_fk: 673,674,675,676
+brand_name: Felix
 1.3</t>
   </si>
   <si>
@@ -1206,40 +1224,39 @@
   </sheetPr>
   <dimension ref="A1:AA65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="O65" activeCellId="0" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.82995951417"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="5.75708502024292"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.2024291497976"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="75.5344129554656"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="29.748987854251"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.2388663967611"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.1174089068826"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="77.9838056680162"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4696356275304"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="13.834008097166"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="28.8947368421053"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="12.9757085020243"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="2" width="12.9757085020243"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="2" width="16.4048582995951"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="12.9757085020243"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="14.2024291497976"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="17.753036437247"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="44.0769230769231"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="82.5546558704454"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="32.4210526315789"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="85.2672064777328"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="31.8502024291498"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="31.4210526315789"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="2" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="2" width="17.8542510121458"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="2" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="48.2753036437247"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="18.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="10.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="108.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5351,10 +5368,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="10.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5466,9 +5483,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.2591093117409"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="9.57085020242915"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="89.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/MARSRU_PROD/Data/MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/MARS KPIs.xlsx
@@ -26,6 +26,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -162,9 +163,7 @@
     <t xml:space="preserve">2.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Total size of entire category (in meters) for CAT FOOD. 
-If Catsan brand is blocked with Mars CAT FOOD on the left or right AND is less then one meter - to include Catsan brand into total size
-Otherwise - not include</t>
+    <t xml:space="preserve">&gt;X&lt;VDFG</t>
   </si>
   <si>
     <t xml:space="preserve">CAT</t>
@@ -1225,38 +1224,38 @@
   <dimension ref="A1:AA65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="O65" activeCellId="0" sqref="O65"/>
+      <selection pane="bottomLeft" activeCell="O62" activeCellId="0" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.8542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="82.5546558704454"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="32.4210526315789"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.8542510121458"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="85.2672064777328"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="31.8502024291498"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="31.4210526315789"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="2" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="2" width="17.8542510121458"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="2" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="48.2753036437247"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="14.8542510121458"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="18.1376518218623"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="10.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="86.4089068825911"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="89.2672064777328"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="33.2793522267206"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="15.5668016194332"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="32.8502024291498"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.7125506072875"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="2" width="14.7125506072875"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="2" width="18.5668016194332"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="14.7125506072875"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="2" width="15.995951417004"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="50.417004048583"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="10.5708502024292"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="108.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5368,10 +5367,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="10.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="10.5708502024292"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5483,9 +5480,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="9.57085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.57085020242915"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.5668016194332"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="89.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/MARSRU_PROD/Data/MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/MARS KPIs.xlsx
@@ -27,6 +27,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1223,39 +1224,39 @@
   </sheetPr>
   <dimension ref="A1:AA65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="O62" activeCellId="0" sqref="O62"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="P63" activeCellId="0" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="86.4089068825911"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="89.2672064777328"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="33.2793522267206"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="15.5668016194332"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="32.8502024291498"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.7125506072875"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="2" width="14.7125506072875"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="2" width="18.5668016194332"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="14.7125506072875"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="2" width="15.995951417004"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="50.417004048583"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="87.1943319838057"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="89.9797570850202"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="33.6356275303644"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="2" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="2" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="2" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="50.8825910931174"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="108.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4870,7 +4871,7 @@
         <v>193</v>
       </c>
       <c r="P63" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
@@ -5367,8 +5368,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5480,7 +5483,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.5668016194332"/>
+    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="89.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/MARSRU_PROD/Data/MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/MARS KPIs.xlsx
@@ -13,7 +13,7 @@
     <sheet name="2306 Automatic - Backup-2018-06" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$B$1:$AA$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
@@ -28,6 +28,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -634,23 +635,23 @@
   </si>
   <si>
     <t xml:space="preserve">form_factor: POUCH, pouch, Pouch. brand_name: Kitekat
-brand_name: Friskies
+form_factor: POUCH, pouch, Pouch. brand_name: Friskies
 1.5
 OR
 form_factor: POUCH, pouch, Pouch. brand_name: Kitekat
-brand_name: TomCat
+form_factor: POUCH, pouch, Pouch. brand_name: TomCat
 1.5
 OR
 form_factor: POUCH, pouch, Pouch. brand_name: Kitekat
-brand_name: Lenta
+form_factor: POUCH, pouch, Pouch. brand_name: Lenta
 1.5
 OR
 form_factor: POUCH, pouch, Pouch. brand_name: Kitekat
-brand_name: Catty
+form_factor: POUCH, pouch, Pouch. brand_name: Catty
 1.5
 OR
 form_factor: POUCH, pouch, Pouch. brand_name: Kitekat
-brand_name: Dars
+form_factor: POUCH, pouch, Pouch. brand_name: Dars
 1.5</t>
   </si>
   <si>
@@ -661,7 +662,7 @@
   </si>
   <si>
     <t xml:space="preserve">form_factor: POUCH, pouch, Pouch. brand_name: Whiskas. exclude sub_category: C&amp;T. exclude product_fk: 673,674,675,676
-brand_name: Felix
+form_factor: POUCH, pouch, Pouch. brand_name: Felix
 1.3</t>
   </si>
   <si>
@@ -672,8 +673,8 @@
     <t xml:space="preserve">To return true if total linear length of WET POUCHES PF+SHEBA &gt;= 130%*any of list of brands {Gourmet}</t>
   </si>
   <si>
-    <t xml:space="preserve">form_factor: POUCH, pouch, Pouch. brand_name: Perfect Fit, Sheba
-brand_name: Gourmet
+    <t xml:space="preserve">form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: Perfect Fit, Sheba
+form_factor: POUCH, pouch, Pouch, CANS, can, Can. Brand_name: Gourmet
 1.3</t>
   </si>
   <si>
@@ -1224,39 +1225,38 @@
   </sheetPr>
   <dimension ref="A1:AA65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="P63" activeCellId="0" sqref="P63"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="87.1943319838057"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="89.9797570850202"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="33.6356275303644"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="2" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="2" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="2" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="50.8825910931174"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.42914979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="91.1214574898785"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="35.7044534412955"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="94.1214574898785"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.7125506072875"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="34.5627530364372"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="2" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="2" width="19.4251012145749"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="2" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="21.1376518218623"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="53.1295546558704"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="19.8542510121458"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="108.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5343,7 +5343,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="B1:AA71"/>
+  <autoFilter ref="B1:AA72"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5368,10 +5368,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="10.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5483,9 +5483,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="89.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
